--- a/氣象性能評估工具V2/data/obs/backup/2016-06-04_t2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/backup/2016-06-04_t2_obs.xlsx
@@ -91,7 +91,7 @@
     <t>恆春</t>
   </si>
   <si>
-    <t>2016-06-04 00:00:00</t>
+    <t>2016-06-04-00</t>
   </si>
   <si>
     <t>22.9</t>
@@ -154,7 +154,7 @@
     <t>26.9</t>
   </si>
   <si>
-    <t>2016-06-04 01:00:00</t>
+    <t>2016-06-04-01</t>
   </si>
   <si>
     <t>22.7</t>
@@ -196,7 +196,7 @@
     <t>27.7</t>
   </si>
   <si>
-    <t>2016-06-04 02:00:00</t>
+    <t>2016-06-04-02</t>
   </si>
   <si>
     <t>22.6</t>
@@ -223,7 +223,7 @@
     <t>26.1</t>
   </si>
   <si>
-    <t>2016-06-04 03:00:00</t>
+    <t>2016-06-04-03</t>
   </si>
   <si>
     <t>22.5</t>
@@ -247,7 +247,7 @@
     <t>29.8</t>
   </si>
   <si>
-    <t>2016-06-04 04:00:00</t>
+    <t>2016-06-04-04</t>
   </si>
   <si>
     <t>22.4</t>
@@ -271,7 +271,7 @@
     <t>25.5</t>
   </si>
   <si>
-    <t>2016-06-04 05:00:00</t>
+    <t>2016-06-04-05</t>
   </si>
   <si>
     <t>24.0</t>
@@ -283,7 +283,7 @@
     <t>5.9</t>
   </si>
   <si>
-    <t>2016-06-04 06:00:00</t>
+    <t>2016-06-04-06</t>
   </si>
   <si>
     <t>23.5</t>
@@ -316,7 +316,7 @@
     <t>30.4</t>
   </si>
   <si>
-    <t>2016-06-04 07:00:00</t>
+    <t>2016-06-04-07</t>
   </si>
   <si>
     <t>24.8</t>
@@ -352,7 +352,7 @@
     <t>6.9</t>
   </si>
   <si>
-    <t>2016-06-04 08:00:00</t>
+    <t>2016-06-04-08</t>
   </si>
   <si>
     <t>31.7</t>
@@ -394,7 +394,7 @@
     <t>32.0</t>
   </si>
   <si>
-    <t>2016-06-04 09:00:00</t>
+    <t>2016-06-04-09</t>
   </si>
   <si>
     <t>25.3</t>
@@ -424,7 +424,7 @@
     <t>34.1</t>
   </si>
   <si>
-    <t>2016-06-04 10:00:00</t>
+    <t>2016-06-04-10</t>
   </si>
   <si>
     <t>26.3</t>
@@ -460,7 +460,7 @@
     <t>32.9</t>
   </si>
   <si>
-    <t>2016-06-04 11:00:00</t>
+    <t>2016-06-04-11</t>
   </si>
   <si>
     <t>35.3</t>
@@ -484,7 +484,7 @@
     <t>37.3</t>
   </si>
   <si>
-    <t>2016-06-04 12:00:00</t>
+    <t>2016-06-04-12</t>
   </si>
   <si>
     <t>25.9</t>
@@ -517,7 +517,7 @@
     <t>37.5</t>
   </si>
   <si>
-    <t>2016-06-04 13:00:00</t>
+    <t>2016-06-04-13</t>
   </si>
   <si>
     <t>35.8</t>
@@ -538,7 +538,7 @@
     <t>33.3</t>
   </si>
   <si>
-    <t>2016-06-04 14:00:00</t>
+    <t>2016-06-04-14</t>
   </si>
   <si>
     <t>26.0</t>
@@ -556,7 +556,7 @@
     <t>10.7</t>
   </si>
   <si>
-    <t>2016-06-04 15:00:00</t>
+    <t>2016-06-04-15</t>
   </si>
   <si>
     <t>35.6</t>
@@ -571,7 +571,7 @@
     <t>29.9</t>
   </si>
   <si>
-    <t>2016-06-04 16:00:00</t>
+    <t>2016-06-04-16</t>
   </si>
   <si>
     <t>25.0</t>
@@ -592,7 +592,7 @@
     <t>31.8</t>
   </si>
   <si>
-    <t>2016-06-04 17:00:00</t>
+    <t>2016-06-04-17</t>
   </si>
   <si>
     <t>24.5</t>
@@ -601,7 +601,7 @@
     <t>15.5</t>
   </si>
   <si>
-    <t>2016-06-04 18:00:00</t>
+    <t>2016-06-04-18</t>
   </si>
   <si>
     <t>23.7</t>
@@ -610,7 +610,7 @@
     <t>6.3</t>
   </si>
   <si>
-    <t>2016-06-04 19:00:00</t>
+    <t>2016-06-04-19</t>
   </si>
   <si>
     <t>23.4</t>
@@ -622,7 +622,7 @@
     <t>5.4</t>
   </si>
   <si>
-    <t>2016-06-04 20:00:00</t>
+    <t>2016-06-04-20</t>
   </si>
   <si>
     <t>23.2</t>
@@ -634,7 +634,7 @@
     <t>4.4</t>
   </si>
   <si>
-    <t>2016-06-04 21:00:00</t>
+    <t>2016-06-04-21</t>
   </si>
   <si>
     <t>21.9</t>
@@ -646,13 +646,13 @@
     <t>5.6</t>
   </si>
   <si>
-    <t>2016-06-04 22:00:00</t>
+    <t>2016-06-04-22</t>
   </si>
   <si>
     <t>13.3</t>
   </si>
   <si>
-    <t>2016-06-04 23:00:00</t>
+    <t>2016-06-04-23</t>
   </si>
   <si>
     <t>23.1</t>
